--- a/doc/SA cert/Verification/time_test/blocking_time_20req.xlsx
+++ b/doc/SA cert/Verification/time_test/blocking_time_20req.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICON\flash\time_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\codefun\doc\SA cert\Verification\time_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
     <t>Sync Call</t>
   </si>
   <si>
-    <t>Async Call</t>
+    <t>Current Design</t>
   </si>
 </sst>
 </file>
@@ -127,7 +127,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -349,11 +348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1529352576"/>
-        <c:axId val="-1529337344"/>
+        <c:axId val="-113060112"/>
+        <c:axId val="-113057392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1529352576"/>
+        <c:axId val="-113060112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -400,7 +399,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -467,12 +465,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1529337344"/>
+        <c:crossAx val="-113057392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1529337344"/>
+        <c:axId val="-113057392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +516,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -585,7 +582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1529352576"/>
+        <c:crossAx val="-113060112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -599,7 +596,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -673,72 +669,26 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Blocking time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2637758773116433E-2"/>
+          <c:y val="3.3070270418702294E-2"/>
+          <c:w val="0.8593915944625008"/>
+          <c:h val="0.85751731987355173"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -751,15 +701,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Async Call</c:v>
+                  <c:v>Current Design</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="3175" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -770,11 +720,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="3175">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -907,7 +857,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>161</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
@@ -928,11 +878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1529348768"/>
-        <c:axId val="-1529338976"/>
+        <c:axId val="-113064464"/>
+        <c:axId val="-113059024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1529348768"/>
+        <c:axId val="-113064464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -942,12 +892,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -973,7 +918,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Requests</a:t>
                 </a:r>
               </a:p>
@@ -1010,17 +961,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1033,10 +981,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1046,12 +991,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1529338976"/>
+        <c:crossAx val="-113059024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1529338976"/>
+        <c:axId val="-113059024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,12 +1005,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1091,7 +1031,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Time(ms)</a:t>
                 </a:r>
               </a:p>
@@ -1128,17 +1074,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1151,10 +1094,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1164,21 +1104,52 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1529348768"/>
+        <c:crossAx val="-113064464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35239619062368133"/>
+          <c:y val="5.7038522959100328E-2"/>
+          <c:w val="0.16780211200795309"/>
+          <c:h val="5.0733156295732017E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1286,42 +1257,8 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2687,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="AC70" sqref="AC70"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="T78" sqref="T78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,7 +2657,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f t="shared" ref="B6:B43" si="0">B5+1</f>
+        <f t="shared" ref="B6:B23" si="0">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6">
@@ -2907,7 +2844,7 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f t="shared" ref="B60:B97" si="1">B59+1</f>
+        <f t="shared" ref="B60:B77" si="1">B59+1</f>
         <v>3</v>
       </c>
       <c r="C60">
@@ -3046,7 +2983,7 @@
         <v>18</v>
       </c>
       <c r="C75">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
